--- a/data/static/position-gcp-list.xlsx
+++ b/data/static/position-gcp-list.xlsx
@@ -5,10 +5,10 @@
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gtc/research/MSN/tasks/2022-SocNet/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gtc/research/MSN/tasks/2022-SocNet/SocNet/data/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{0A6EDBDC-FA5A-5844-975E-EAE00DBCABE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{0F804BC2-9B10-5540-8FF2-39708C608B1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="62" uniqueCount="61">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="62" uniqueCount="62">
   <si>
     <t>zone</t>
   </si>
@@ -208,6 +208,9 @@
   </si>
   <si>
     <t>拉斯维加斯</t>
+  </si>
+  <si>
+    <t>northamerica-northeast2</t>
   </si>
 </sst>
 </file>
@@ -691,8 +694,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1051,7 +1055,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1438,8 +1442,8 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>18</v>
+      <c r="A28" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B28">
         <v>43.718155699999997</v>

--- a/data/static/position-gcp-list.xlsx
+++ b/data/static/position-gcp-list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gtc/research/MSN/tasks/2022-SocNet/SocNet/data/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{0F804BC2-9B10-5540-8FF2-39708C608B1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{D763C597-1D73-8746-B7BF-7943C600F132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1055,7 +1055,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1460,10 +1460,10 @@
         <v>30</v>
       </c>
       <c r="B29">
-        <v>1.8708716999999999</v>
+        <v>-28.9426773</v>
       </c>
       <c r="C29">
-        <v>176.7630997</v>
+        <v>-60.701129100000003</v>
       </c>
       <c r="D29" t="s">
         <v>53</v>

--- a/data/static/position-gcp-list.xlsx
+++ b/data/static/position-gcp-list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gtc/research/MSN/tasks/2022-SocNet/SocNet/data/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{D763C597-1D73-8746-B7BF-7943C600F132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{72782A52-CB11-3645-846B-0A9C83EA09C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1055,7 +1055,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1460,10 +1460,10 @@
         <v>30</v>
       </c>
       <c r="B29">
-        <v>-28.9426773</v>
+        <v>-29.195028600000001</v>
       </c>
       <c r="C29">
-        <v>-60.701129100000003</v>
+        <v>-54.871880099999998</v>
       </c>
       <c r="D29" t="s">
         <v>53</v>
